--- a/Bases de Dados/Emails.xlsx
+++ b/Bases de Dados/Emails.xlsx
@@ -33,7 +33,7 @@
     <t>Helena</t>
   </si>
   <si>
-    <t>thiagokato+helena@gmail.com</t>
+    <t>&lt;seu_email&gt;+helena@gmail.com</t>
   </si>
   <si>
     <t>Shopping Midway Mall</t>
@@ -42,7 +42,7 @@
     <t>Alice</t>
   </si>
   <si>
-    <t>thiagokato+alice@gmail.com</t>
+    <t>&lt;seu_email&gt;+alice@gmail.com</t>
   </si>
   <si>
     <t>Norte Shopping</t>
@@ -51,7 +51,7 @@
     <t>Laura</t>
   </si>
   <si>
-    <t>thiagokato+laura@gmail.com</t>
+    <t>&lt;seu_email&gt;+laura@gmail.com</t>
   </si>
   <si>
     <t>Shopping Iguatemi Fortaleza</t>
@@ -60,7 +60,7 @@
     <t>Manuela</t>
   </si>
   <si>
-    <t>thiagokato+manuela@gmail.com</t>
+    <t>&lt;seu_email&gt;+manuela@gmail.com</t>
   </si>
   <si>
     <t>Shopping União de Osasco</t>
@@ -69,7 +69,7 @@
     <t>Valentina</t>
   </si>
   <si>
-    <t>thiagokato+valentina@gmail.com</t>
+    <t>&lt;seu_email&gt;+valentina@gmail.com</t>
   </si>
   <si>
     <t>Shopping Center Interlagos</t>
@@ -78,7 +78,7 @@
     <t>Sophia</t>
   </si>
   <si>
-    <t>thiagokato+sophia@gmail.com</t>
+    <t>&lt;seu_email&gt;+sophia@gmail.com</t>
   </si>
   <si>
     <t>Rio Mar Recife</t>
@@ -87,7 +87,7 @@
     <t>Isabella</t>
   </si>
   <si>
-    <t>thiagokato+isabella@gmail.com</t>
+    <t>&lt;seu_email&gt;+isabella@gmail.com</t>
   </si>
   <si>
     <t>Salvador Shopping</t>
@@ -96,7 +96,7 @@
     <t>Heloisa</t>
   </si>
   <si>
-    <t>thiagokato+heloisa@gmail.com</t>
+    <t>&lt;seu_email&gt;+heloisa@gmail.com</t>
   </si>
   <si>
     <t>Rio Mar Shopping Fortaleza</t>
@@ -105,7 +105,7 @@
     <t>Luiza</t>
   </si>
   <si>
-    <t>thiagokato+luiza@gmail.com</t>
+    <t>&lt;seu_email&gt;+luiza@gmail.com</t>
   </si>
   <si>
     <t>Shopping Center Leste Aricanduva</t>
@@ -114,7 +114,7 @@
     <t>Julia</t>
   </si>
   <si>
-    <t>thiagokato+julia@gmail.com</t>
+    <t>&lt;seu_email&gt;+julia@gmail.com</t>
   </si>
   <si>
     <t>Ribeirão Shopping</t>
@@ -123,7 +123,7 @@
     <t>Lorena</t>
   </si>
   <si>
-    <t>thiagokato+lorena@gmail.com</t>
+    <t>&lt;seu_email&gt;+lorena@gmail.com</t>
   </si>
   <si>
     <t>Shopping Morumbi</t>
@@ -132,7 +132,7 @@
     <t>Livia</t>
   </si>
   <si>
-    <t>thiagokato+livia@gmail.com</t>
+    <t>&lt;seu_email&gt;+livia@gmail.com</t>
   </si>
   <si>
     <t>Parque Dom Pedro Shopping</t>
@@ -141,7 +141,7 @@
     <t>Maria Luiza</t>
   </si>
   <si>
-    <t>thiagokato+maria_luiza@gmail.com</t>
+    <t>&lt;seu_email&gt;+maria_luiza@gmail.com</t>
   </si>
   <si>
     <t>Bourbon Shopping SP</t>
@@ -150,7 +150,7 @@
     <t>Cecilia</t>
   </si>
   <si>
-    <t>thiagokato+cecilia@gmail.com</t>
+    <t>&lt;seu_email&gt;+cecilia@gmail.com</t>
   </si>
   <si>
     <t>Palladium Shopping Curitiba</t>
@@ -159,7 +159,7 @@
     <t>Eloa</t>
   </si>
   <si>
-    <t>thiagokato+eloa@gmail.com</t>
+    <t>&lt;seu_email&gt;+eloa@gmail.com</t>
   </si>
   <si>
     <t>Passei das Águas Shopping</t>
@@ -168,7 +168,7 @@
     <t>Miguel</t>
   </si>
   <si>
-    <t>thiagokato+miguel@gmail.com</t>
+    <t>&lt;seu_email&gt;+miguel@gmail.com</t>
   </si>
   <si>
     <t>Center Shopping Uberlândia</t>
@@ -177,7 +177,7 @@
     <t>Arthur</t>
   </si>
   <si>
-    <t>thiagokato+arthur@gmail.com</t>
+    <t>&lt;seu_email&gt;+arthur@gmail.com</t>
   </si>
   <si>
     <t>Shopping Recife</t>
@@ -186,7 +186,7 @@
     <t>Heitor</t>
   </si>
   <si>
-    <t>thiagokato+heitor@gmail.com</t>
+    <t>&lt;seu_email&gt;+heitor@gmail.com</t>
   </si>
   <si>
     <t>Shopping Vila Velha</t>
@@ -195,7 +195,7 @@
     <t>Bernardo</t>
   </si>
   <si>
-    <t>thiagokato+bernardo@gmail.com</t>
+    <t>&lt;seu_email&gt;+bernardo@gmail.com</t>
   </si>
   <si>
     <t>Shopping SP Market</t>
@@ -204,7 +204,7 @@
     <t>Davi</t>
   </si>
   <si>
-    <t>thiagokato+davi@gmail.com</t>
+    <t>&lt;seu_email&gt;+davi@gmail.com</t>
   </si>
   <si>
     <t>Shopping Eldorado</t>
@@ -213,7 +213,7 @@
     <t>Theo</t>
   </si>
   <si>
-    <t>thiagokato+theo@gmail.com</t>
+    <t>&lt;seu_email&gt;+theo@gmail.com</t>
   </si>
   <si>
     <t>Shopping Ibirapuera</t>
@@ -222,7 +222,7 @@
     <t>Lorenzo</t>
   </si>
   <si>
-    <t>thiagokato+lorenzo@gmail.com</t>
+    <t>&lt;seu_email&gt;+lorenzo@gmail.com</t>
   </si>
   <si>
     <t>Novo Shopping Ribeirão Preto</t>
@@ -231,7 +231,7 @@
     <t>Gabriel</t>
   </si>
   <si>
-    <t>thiagokato+gabriel@gmail.com</t>
+    <t>&lt;seu_email&gt;+gabriel@gmail.com</t>
   </si>
   <si>
     <t>Iguatemi Campinas</t>
@@ -240,7 +240,7 @@
     <t>Pedro</t>
   </si>
   <si>
-    <t>thiagokato+pedro@gmail.com</t>
+    <t>&lt;seu_email&gt;+pedro@gmail.com</t>
   </si>
   <si>
     <t>Shopping Barra</t>
@@ -249,13 +249,13 @@
     <t>Benjamin</t>
   </si>
   <si>
-    <t>thiagokato+benjamin@gmail.com</t>
+    <t>&lt;seu_email&gt;+benjamin@gmail.com</t>
   </si>
   <si>
     <t>Diretoria</t>
   </si>
   <si>
-    <t>thiagokato+diretoria@gmail.com</t>
+    <t>&lt;seu_email&gt;+diretoria@gmail.com</t>
   </si>
 </sst>
 </file>
